--- a/data/trans_orig/P1401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D10C6D0-ABF2-4E82-B555-BF101E9A6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E424D883-0310-4FBC-819D-13AAF531712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{406691C6-5937-447E-980D-74C46567C056}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F602AB56-0065-49D4-AFCF-634072EC735A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="284">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -112,778 +112,784 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36A7C9F-C75D-43C3-8EB6-CC764FBD7EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D36C848-6543-4953-B46A-69421430D517}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1747,10 +1753,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1759,13 +1765,13 @@
         <v>15337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1786,13 @@
         <v>676767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -1795,13 +1801,13 @@
         <v>699333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -1810,13 +1816,13 @@
         <v>1376100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,7 +1878,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1884,13 +1890,13 @@
         <v>5269</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1899,13 +1905,13 @@
         <v>19836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1914,13 +1920,13 @@
         <v>25105</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1941,13 @@
         <v>609348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -1950,13 +1956,13 @@
         <v>594428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -1965,13 +1971,13 @@
         <v>1203775</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2033,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2039,13 +2045,13 @@
         <v>7234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2054,13 +2060,13 @@
         <v>20005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2069,13 +2075,13 @@
         <v>27239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2096,13 @@
         <v>422195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2105,13 +2111,13 @@
         <v>427795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -2120,13 +2126,13 @@
         <v>849990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2188,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2194,13 +2200,13 @@
         <v>18630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -2209,13 +2215,13 @@
         <v>21536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -2224,13 +2230,13 @@
         <v>40166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2251,13 @@
         <v>541007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -2260,13 +2266,13 @@
         <v>721439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2275,13 +2281,13 @@
         <v>1262446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2355,13 @@
         <v>39165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -2364,13 +2370,13 @@
         <v>71617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -2379,13 +2385,13 @@
         <v>110782</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2406,13 @@
         <v>3387614</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>3232</v>
@@ -2415,28 +2421,28 @@
         <v>3483481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>6405</v>
       </c>
       <c r="N23" s="7">
-        <v>6871095</v>
+        <v>6871096</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,7 +2484,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5CF205-ACE0-4768-A221-3B04BDCD2B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18356A3F-6D5E-4965-82DF-746D389EF826}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2531,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2659,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2674,7 +2680,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2698,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2707,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2722,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2808,13 +2814,13 @@
         <v>976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2823,13 +2829,13 @@
         <v>976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +2865,10 @@
         <v>562568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2874,10 +2880,10 @@
         <v>1153064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2948,13 +2954,13 @@
         <v>1016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2963,13 +2969,13 @@
         <v>9637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2978,13 +2984,13 @@
         <v>10653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,10 +3005,10 @@
         <v>668081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3014,13 +3020,13 @@
         <v>651749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -3029,13 +3035,13 @@
         <v>1319830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,7 +3097,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3103,13 +3109,13 @@
         <v>6363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3118,13 +3124,13 @@
         <v>13860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3133,13 +3139,13 @@
         <v>20222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3160,13 @@
         <v>639685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -3169,28 +3175,28 @@
         <v>635217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>1274903</v>
+        <v>1274904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,7 +3238,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3264,13 @@
         <v>5002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3273,13 +3279,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3288,13 +3294,13 @@
         <v>18339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3315,13 @@
         <v>472916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3324,13 +3330,13 @@
         <v>483512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -3339,13 +3345,13 @@
         <v>956428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3407,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3413,13 +3419,13 @@
         <v>17353</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3428,13 +3434,13 @@
         <v>33341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3443,13 +3449,13 @@
         <v>50694</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3470,13 @@
         <v>573975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3479,13 +3485,13 @@
         <v>744590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>1235</v>
@@ -3494,13 +3500,13 @@
         <v>1318565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3574,13 @@
         <v>29734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -3583,13 +3589,13 @@
         <v>71150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -3598,13 +3604,13 @@
         <v>100884</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3625,13 @@
         <v>3364616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>3275</v>
@@ -3634,13 +3640,13 @@
         <v>3473392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>6475</v>
@@ -3649,13 +3655,13 @@
         <v>6838008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3717,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C0DE13-C0D1-453E-A0D9-8D17F6BB2305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6455976-D992-4056-AA2D-DF990B1FFB8D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3750,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3863,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3878,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3893,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3926,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3941,7 +3947,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4018,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4033,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4042,13 +4048,13 @@
         <v>3081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,7 +4072,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4081,7 +4087,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4093,10 +4099,10 @@
         <v>923892</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4167,13 +4173,13 @@
         <v>2597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4182,13 +4188,13 @@
         <v>5454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4197,13 +4203,13 @@
         <v>8051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4224,10 @@
         <v>554495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4233,13 +4239,13 @@
         <v>577304</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>1381</v>
@@ -4248,13 +4254,13 @@
         <v>1131799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4316,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4322,13 +4328,13 @@
         <v>9880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4337,13 +4343,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4352,13 +4358,13 @@
         <v>29479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4379,13 @@
         <v>711863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
         <v>1109</v>
@@ -4388,13 +4394,13 @@
         <v>726528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
@@ -4403,13 +4409,13 @@
         <v>1438391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,7 +4471,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4477,13 +4483,13 @@
         <v>22067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4492,13 +4498,13 @@
         <v>20182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4507,13 +4513,13 @@
         <v>42248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4534,13 @@
         <v>576087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
@@ -4543,13 +4549,13 @@
         <v>571569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>1599</v>
@@ -4558,13 +4564,13 @@
         <v>1147657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4626,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4632,13 +4638,13 @@
         <v>37488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4647,13 +4653,13 @@
         <v>39705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4662,13 +4668,13 @@
         <v>77194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4689,13 @@
         <v>657842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>1632</v>
@@ -4698,13 +4704,13 @@
         <v>986086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>2597</v>
@@ -4790,10 +4796,10 @@
         <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -4802,13 +4808,13 @@
         <v>86078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
@@ -4823,7 +4829,7 @@
         <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4844,13 @@
         <v>3304419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>5206</v>
@@ -4853,28 +4859,28 @@
         <v>3713882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M23" s="7">
         <v>8479</v>
       </c>
       <c r="N23" s="7">
-        <v>7018302</v>
+        <v>7018301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,7 +4922,7 @@
         <v>8722</v>
       </c>
       <c r="N24" s="7">
-        <v>7178355</v>
+        <v>7178354</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -4930,7 +4936,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E424D883-0310-4FBC-819D-13AAF531712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{985D08C0-57B6-4C5D-88AE-251C7144C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F602AB56-0065-49D4-AFCF-634072EC735A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{697A8ED9-98EE-4D40-9091-220C4A7DDEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="292">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -112,772 +112,796 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>96,26%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -1301,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D36C848-6543-4953-B46A-69421430D517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1C7A7F-F7E0-4C78-939F-A279BD9FF5CE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1926,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1965,13 @@
         <v>609348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -1956,13 +1980,13 @@
         <v>594428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -1971,13 +1995,13 @@
         <v>1203775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2057,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2045,13 +2069,13 @@
         <v>7234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2060,13 +2084,13 @@
         <v>20005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2075,13 +2099,13 @@
         <v>27239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2120,13 @@
         <v>422195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2111,13 +2135,13 @@
         <v>427795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -2126,13 +2150,13 @@
         <v>849990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2212,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2200,13 +2224,13 @@
         <v>18630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -2215,13 +2239,13 @@
         <v>21536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -2230,13 +2254,13 @@
         <v>40166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2275,13 @@
         <v>541007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>673</v>
@@ -2370,13 +2394,13 @@
         <v>71617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -2385,13 +2409,13 @@
         <v>110782</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2430,13 @@
         <v>3387614</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>3232</v>
@@ -2421,28 +2445,28 @@
         <v>3483481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>6405</v>
       </c>
       <c r="N23" s="7">
-        <v>6871096</v>
+        <v>6871095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2508,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2498,7 +2522,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18356A3F-6D5E-4965-82DF-746D389EF826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB3C8F-ACAB-4BCF-976E-2161B2EB2EB8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2537,7 +2561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2650,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2665,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2680,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2713,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2728,7 +2752,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2814,13 +2838,13 @@
         <v>976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2829,13 +2853,13 @@
         <v>976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,10 +2889,10 @@
         <v>562568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2880,10 +2904,10 @@
         <v>1153064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2954,13 +2978,13 @@
         <v>1016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2969,13 +2993,13 @@
         <v>9637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2984,10 +3008,10 @@
         <v>10653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>148</v>
@@ -3035,13 +3059,13 @@
         <v>1319830</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3133,13 @@
         <v>6363</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3124,13 +3148,13 @@
         <v>13860</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3139,13 +3163,13 @@
         <v>20222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3184,13 @@
         <v>639685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -3175,28 +3199,28 @@
         <v>635217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>1274904</v>
+        <v>1274903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3262,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3252,7 +3276,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3264,13 +3288,13 @@
         <v>5002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3279,13 +3303,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3294,13 +3318,13 @@
         <v>18339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3339,13 @@
         <v>472916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3330,13 +3354,13 @@
         <v>483512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -3345,13 +3369,13 @@
         <v>956428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3431,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3419,13 +3443,13 @@
         <v>17353</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3434,13 +3458,13 @@
         <v>33341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3449,13 +3473,13 @@
         <v>50694</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3494,13 @@
         <v>573975</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3485,7 +3509,7 @@
         <v>744590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>195</v>
@@ -3589,10 +3613,10 @@
         <v>71150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>202</v>
@@ -3610,7 +3634,7 @@
         <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3649,13 @@
         <v>3364616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>3275</v>
@@ -3640,13 +3664,13 @@
         <v>3473392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>6475</v>
@@ -3655,13 +3679,13 @@
         <v>6838008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3741,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6455976-D992-4056-AA2D-DF990B1FFB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F2EF21-FDF3-4913-8233-CA075FCEC515}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3756,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3869,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3884,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3899,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4039,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4054,7 +4078,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +4096,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4087,7 +4111,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4099,10 +4123,10 @@
         <v>923892</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4173,13 +4197,13 @@
         <v>2597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4188,13 +4212,13 @@
         <v>5454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4203,13 +4227,13 @@
         <v>8051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,10 +4248,10 @@
         <v>554495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4239,13 +4263,13 @@
         <v>577304</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>1381</v>
@@ -4254,10 +4278,10 @@
         <v>1131799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>31</v>
@@ -4328,13 +4352,13 @@
         <v>9880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4343,13 +4367,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4358,13 +4382,13 @@
         <v>29479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4403,13 @@
         <v>711863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>1109</v>
@@ -4394,13 +4418,13 @@
         <v>726528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
@@ -4409,13 +4433,13 @@
         <v>1438391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,7 +4495,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4483,13 +4507,13 @@
         <v>22067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4498,13 +4522,13 @@
         <v>20182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4513,13 +4537,13 @@
         <v>42248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4558,13 @@
         <v>576087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
@@ -4549,13 +4573,13 @@
         <v>571569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>1599</v>
@@ -4564,13 +4588,13 @@
         <v>1147657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4650,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4638,13 +4662,13 @@
         <v>37488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4653,13 +4677,13 @@
         <v>39705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4668,13 +4692,13 @@
         <v>77194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4713,13 @@
         <v>657842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>1632</v>
@@ -4704,13 +4728,13 @@
         <v>986086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>2597</v>
@@ -4719,13 +4743,13 @@
         <v>1643927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4817,13 @@
         <v>73975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -4808,13 +4832,13 @@
         <v>86078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
@@ -4823,13 +4847,13 @@
         <v>160053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4868,13 @@
         <v>3304419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>5206</v>
@@ -4859,13 +4883,13 @@
         <v>3713882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>8479</v>
@@ -4874,13 +4898,13 @@
         <v>7018301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +4960,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{985D08C0-57B6-4C5D-88AE-251C7144C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19CEC4A-74DF-4FCF-8822-B3EF3F43DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{697A8ED9-98EE-4D40-9091-220C4A7DDEB3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A142B68-076F-44E8-B7D4-24F7672FF9EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="282">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -112,796 +112,769 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -910,10 +883,7 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1C7A7F-F7E0-4C78-939F-A279BD9FF5CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7157A9BA-D738-4866-A1C3-451D9D58B633}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,10 +1747,10 @@
         <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -1789,13 +1759,13 @@
         <v>15337</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1780,13 @@
         <v>676767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -1825,13 +1795,13 @@
         <v>699333</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1304</v>
@@ -1840,13 +1810,13 @@
         <v>1376100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1872,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1884,13 @@
         <v>5269</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1929,13 +1899,13 @@
         <v>19836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1944,13 +1914,13 @@
         <v>25105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1935,13 @@
         <v>609348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>522</v>
@@ -1980,13 +1950,13 @@
         <v>594428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1065</v>
@@ -1995,13 +1965,13 @@
         <v>1203775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2069,13 +2039,13 @@
         <v>7234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2084,13 +2054,13 @@
         <v>20005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2099,13 +2069,13 @@
         <v>27239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2090,13 @@
         <v>422195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2135,13 +2105,13 @@
         <v>427795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -2150,13 +2120,13 @@
         <v>849990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,7 +2182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2224,13 +2194,13 @@
         <v>18630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -2239,13 +2209,13 @@
         <v>21536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -2254,13 +2224,13 @@
         <v>40166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,10 +2245,10 @@
         <v>541007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>65</v>
@@ -2290,13 +2260,13 @@
         <v>721439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>1161</v>
@@ -2305,13 +2275,13 @@
         <v>1262446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2349,13 @@
         <v>39165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -2394,13 +2364,13 @@
         <v>71617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -2409,13 +2379,13 @@
         <v>110782</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2400,13 @@
         <v>3387614</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>3232</v>
@@ -2445,13 +2415,13 @@
         <v>3483481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>6405</v>
@@ -2460,13 +2430,13 @@
         <v>6871095</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,7 +2492,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB3C8F-ACAB-4BCF-976E-2161B2EB2EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C92E6B-1438-4190-9899-6AE650D1FA43}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2561,7 +2531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2674,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2689,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2704,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2737,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2752,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2838,13 +2808,13 @@
         <v>976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2853,13 +2823,13 @@
         <v>976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,10 +2859,10 @@
         <v>562568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2904,10 +2874,10 @@
         <v>1153064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2978,13 +2948,13 @@
         <v>1016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2993,13 +2963,13 @@
         <v>9637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3008,13 +2978,13 @@
         <v>10653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,10 +2999,10 @@
         <v>668081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3044,13 +3014,13 @@
         <v>651749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -3059,13 +3029,13 @@
         <v>1319830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3091,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3133,13 +3103,13 @@
         <v>6363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3148,13 +3118,13 @@
         <v>13860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3163,13 +3133,13 @@
         <v>20222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3154,13 @@
         <v>639685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -3199,13 +3169,13 @@
         <v>635217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
@@ -3214,10 +3184,10 @@
         <v>1274903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>162</v>
@@ -3276,7 +3246,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3288,13 +3258,13 @@
         <v>5002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3303,13 +3273,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3318,13 +3288,13 @@
         <v>18339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3309,13 @@
         <v>472916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3354,13 +3324,13 @@
         <v>483512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -3369,13 +3339,13 @@
         <v>956428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3401,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3443,13 +3413,13 @@
         <v>17353</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -3458,13 +3428,13 @@
         <v>33341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3473,13 +3443,13 @@
         <v>50694</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3464,13 @@
         <v>573975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>627</v>
@@ -3509,13 +3479,13 @@
         <v>744590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>1235</v>
@@ -3524,13 +3494,13 @@
         <v>1318565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3568,13 @@
         <v>29734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -3613,13 +3583,13 @@
         <v>71150</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -3628,13 +3598,13 @@
         <v>100884</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3619,13 @@
         <v>3364616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="H23" s="7">
         <v>3275</v>
@@ -3664,13 +3634,13 @@
         <v>3473392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>6475</v>
@@ -3679,13 +3649,13 @@
         <v>6838008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3711,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3763,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F2EF21-FDF3-4913-8233-CA075FCEC515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7672E12-48DF-4381-8157-12B4DCAF7777}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3780,7 +3750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3893,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3908,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3923,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,7 +3911,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3956,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3971,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4048,7 +4018,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4063,7 +4033,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4072,13 +4042,13 @@
         <v>3081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4111,7 +4081,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4123,10 +4093,10 @@
         <v>923892</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4197,13 +4167,13 @@
         <v>2597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4212,13 +4182,13 @@
         <v>5454</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4227,13 +4197,13 @@
         <v>8051</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,10 +4218,10 @@
         <v>554495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4263,13 +4233,13 @@
         <v>577304</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>1381</v>
@@ -4278,13 +4248,13 @@
         <v>1131799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4310,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4352,13 +4322,13 @@
         <v>9880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4367,13 +4337,13 @@
         <v>19599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -4382,13 +4352,13 @@
         <v>29479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4373,13 @@
         <v>711863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>1109</v>
@@ -4418,13 +4388,13 @@
         <v>726528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
@@ -4433,13 +4403,13 @@
         <v>1438391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4465,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4507,13 +4477,13 @@
         <v>22067</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4522,13 +4492,13 @@
         <v>20182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -4537,13 +4507,13 @@
         <v>42248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4528,13 @@
         <v>576087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
@@ -4573,13 +4543,13 @@
         <v>571569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>1599</v>
@@ -4588,13 +4558,13 @@
         <v>1147657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4620,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4662,13 +4632,13 @@
         <v>37488</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4677,13 +4647,13 @@
         <v>39705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4692,13 +4662,13 @@
         <v>77194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4683,13 @@
         <v>657842</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>1632</v>
@@ -4728,13 +4698,13 @@
         <v>986086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>2597</v>
@@ -4743,13 +4713,13 @@
         <v>1643927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4787,13 @@
         <v>73975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -4832,13 +4802,13 @@
         <v>86078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>243</v>
@@ -4847,13 +4817,13 @@
         <v>160053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4838,13 @@
         <v>3304419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>5206</v>
@@ -4883,28 +4853,28 @@
         <v>3713882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>8479</v>
       </c>
       <c r="N23" s="7">
-        <v>7018301</v>
+        <v>7018302</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4916,7 @@
         <v>8722</v>
       </c>
       <c r="N24" s="7">
-        <v>7178354</v>
+        <v>7178355</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -4960,7 +4930,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19CEC4A-74DF-4FCF-8822-B3EF3F43DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B23FFD-BAA5-4406-9B99-D6A65AF8EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A142B68-076F-44E8-B7D4-24F7672FF9EB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C09607BC-93BD-4EED-BC95-459DA4A35B37}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="339">
   <si>
     <t>Población con diagnóstico de cáncer en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -145,7 +145,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -196,7 +196,7 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -247,7 +247,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -304,586 +304,757 @@
     <t>97,88%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cáncer en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1466,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7157A9BA-D738-4866-A1C3-451D9D58B633}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D91B3F-FC36-4AAE-9C13-BB74A550ED23}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2188,49 +2359,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>18630</v>
+        <v>11354</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>11705</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="7">
         <v>21</v>
       </c>
-      <c r="I19" s="7">
-        <v>21536</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>37</v>
-      </c>
       <c r="N19" s="7">
-        <v>40166</v>
+        <v>23059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,10 +2410,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="D20" s="7">
-        <v>541007</v>
+        <v>298432</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>97</v>
@@ -2251,34 +2422,34 @@
         <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
-        <v>673</v>
+        <v>332</v>
       </c>
       <c r="I20" s="7">
-        <v>721439</v>
+        <v>342291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
-        <v>1161</v>
+        <v>605</v>
       </c>
       <c r="N20" s="7">
-        <v>1262446</v>
+        <v>640723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>104</v>
@@ -2290,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2305,10 +2476,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2320,10 +2491,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2337,55 +2508,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>39165</v>
+        <v>7277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>71617</v>
+        <v>9830</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>110782</v>
+        <v>17107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,49 +2565,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3173</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>3387614</v>
+        <v>242574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
-        <v>3232</v>
+        <v>341</v>
       </c>
       <c r="I23" s="7">
-        <v>3483481</v>
+        <v>379149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>6405</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>6871095</v>
+        <v>621723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,63 +2616,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="7">
+        <v>64</v>
+      </c>
+      <c r="I25" s="7">
+        <v>71617</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="7">
+        <v>100</v>
+      </c>
+      <c r="N25" s="7">
+        <v>110782</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3173</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3387614</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3232</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3483481</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6405</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6871095</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2514,8 +2841,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C92E6B-1438-4190-9899-6AE650D1FA43}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F8D8DF-6CA8-452A-BF0C-F73B8DBA612E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2531,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2659,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2674,7 +3001,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +3019,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2707,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2722,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2808,13 +3135,13 @@
         <v>976</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2823,13 +3150,13 @@
         <v>976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +3186,10 @@
         <v>562568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2874,10 +3201,10 @@
         <v>1153064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2948,13 +3275,13 @@
         <v>1016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2963,13 +3290,13 @@
         <v>9637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2978,13 +3305,13 @@
         <v>10653</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,10 +3326,10 @@
         <v>668081</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3014,13 +3341,13 @@
         <v>651749</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>1293</v>
@@ -3029,13 +3356,13 @@
         <v>1319830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3430,13 @@
         <v>6363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3118,13 +3445,13 @@
         <v>13860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3133,13 +3460,13 @@
         <v>20222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3481,13 @@
         <v>639685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>589</v>
@@ -3169,13 +3496,13 @@
         <v>635217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1165</v>
@@ -3184,13 +3511,13 @@
         <v>1274903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3585,13 @@
         <v>5002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3273,13 +3600,13 @@
         <v>13337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3288,13 +3615,13 @@
         <v>18339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3636,13 @@
         <v>472916</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>421</v>
@@ -3324,13 +3651,13 @@
         <v>483512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -3339,13 +3666,13 @@
         <v>956428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,49 +3734,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>17353</v>
+        <v>5826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>33341</v>
+        <v>18553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>50694</v>
+        <v>24378</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3785,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>608</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>573975</v>
+        <v>328504</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
-        <v>627</v>
+        <v>336</v>
       </c>
       <c r="I20" s="7">
-        <v>744590</v>
+        <v>359209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
-        <v>1235</v>
+        <v>655</v>
       </c>
       <c r="N20" s="7">
-        <v>1318565</v>
+        <v>687714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3524,10 +3851,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3539,10 +3866,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3556,55 +3883,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>29734</v>
+        <v>11527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>71150</v>
+        <v>14789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>100884</v>
+        <v>26316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3940,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3200</v>
+        <v>289</v>
       </c>
       <c r="D23" s="7">
-        <v>3364616</v>
+        <v>245471</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
-        <v>3275</v>
+        <v>291</v>
       </c>
       <c r="I23" s="7">
-        <v>3473392</v>
+        <v>385380</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M23" s="7">
-        <v>6475</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>6838008</v>
+        <v>630851</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,63 +3991,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29734</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="7">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7">
+        <v>71150</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" s="7">
+        <v>94</v>
+      </c>
+      <c r="N25" s="7">
+        <v>100884</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3200</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3364616</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3473392</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6475</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6838008</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3733,8 +4216,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7672E12-48DF-4381-8157-12B4DCAF7777}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232C4C63-F557-4CEC-A186-6E084D26C8EB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3750,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3863,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3878,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3893,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +4388,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3920,13 +4403,13 @@
         <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3935,13 +4418,13 @@
         <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3956,7 +4439,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3971,7 +4454,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3986,7 +4469,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4009,46 +4492,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1942</v>
+        <v>1621</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1139</v>
+        <v>940</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>3081</v>
+        <v>2561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4543,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>426454</v>
+        <v>421926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4075,13 +4558,13 @@
         <v>459</v>
       </c>
       <c r="I8" s="7">
-        <v>497438</v>
+        <v>510564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4090,13 +4573,13 @@
         <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>923892</v>
+        <v>932490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4111,7 +4594,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4126,7 +4609,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4141,7 +4624,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4164,46 +4647,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2597</v>
+        <v>2616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>5454</v>
+        <v>4867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8051</v>
+        <v>7482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4698,13 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>554495</v>
+        <v>533559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4230,31 +4713,31 @@
         <v>838</v>
       </c>
       <c r="I11" s="7">
-        <v>577304</v>
+        <v>536932</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>1381</v>
       </c>
       <c r="N11" s="7">
-        <v>1131799</v>
+        <v>1070491</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4749,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4281,7 +4764,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4296,7 +4779,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1139850</v>
+        <v>1077973</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4319,46 +4802,46 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>9880</v>
+        <v>9293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>19599</v>
+        <v>17761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>29479</v>
+        <v>27054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,46 +4853,46 @@
         <v>654</v>
       </c>
       <c r="D14" s="7">
-        <v>711863</v>
+        <v>876358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>1109</v>
       </c>
       <c r="I14" s="7">
-        <v>726528</v>
+        <v>694075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>1763</v>
       </c>
       <c r="N14" s="7">
-        <v>1438391</v>
+        <v>1570432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4904,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721743</v>
+        <v>885651</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4436,7 +4919,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746127</v>
+        <v>711836</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4451,7 +4934,7 @@
         <v>1802</v>
       </c>
       <c r="N15" s="7">
-        <v>1467870</v>
+        <v>1597486</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4474,46 +4957,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>22067</v>
+        <v>20586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>20182</v>
+        <v>18518</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>42248</v>
+        <v>39104</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,46 +5008,46 @@
         <v>638</v>
       </c>
       <c r="D17" s="7">
-        <v>576087</v>
+        <v>538792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>961</v>
       </c>
       <c r="I17" s="7">
-        <v>571569</v>
+        <v>524723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>1599</v>
       </c>
       <c r="N17" s="7">
-        <v>1147657</v>
+        <v>1063515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +5059,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598154</v>
+        <v>559378</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4591,7 +5074,7 @@
         <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>591751</v>
+        <v>543241</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4606,7 +5089,7 @@
         <v>1658</v>
       </c>
       <c r="N18" s="7">
-        <v>1189905</v>
+        <v>1102619</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4626,49 +5109,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>37488</v>
+        <v>15661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>39705</v>
+        <v>18427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>77194</v>
+        <v>34088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,49 +5160,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>965</v>
+        <v>540</v>
       </c>
       <c r="D20" s="7">
-        <v>657842</v>
+        <v>351165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
-        <v>1632</v>
+        <v>787</v>
       </c>
       <c r="I20" s="7">
-        <v>986086</v>
+        <v>589782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
-        <v>2597</v>
+        <v>1327</v>
       </c>
       <c r="N20" s="7">
-        <v>1643927</v>
+        <v>940947</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,10 +5211,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>695330</v>
+        <v>366826</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4743,10 +5226,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025791</v>
+        <v>608209</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4758,10 +5241,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721121</v>
+        <v>975035</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4775,55 +5258,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>73975</v>
+        <v>19101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>86078</v>
+        <v>17427</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>160053</v>
+        <v>36528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,49 +5315,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3273</v>
+        <v>425</v>
       </c>
       <c r="D23" s="7">
-        <v>3304419</v>
+        <v>262794</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
-        <v>5206</v>
+        <v>845</v>
       </c>
       <c r="I23" s="7">
-        <v>3713882</v>
+        <v>407807</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
-        <v>8479</v>
+        <v>1270</v>
       </c>
       <c r="N23" s="7">
-        <v>7018302</v>
+        <v>670601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,63 +5366,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281895</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425234</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707129</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>68877</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="7">
+        <v>148</v>
+      </c>
+      <c r="I25" s="7">
+        <v>77940</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="7">
+        <v>243</v>
+      </c>
+      <c r="N25" s="7">
+        <v>146817</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3273</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3384581</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5206</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3577082</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8479</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6961663</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3378394</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3453458</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799960</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655022</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8722</v>
       </c>
-      <c r="N24" s="7">
-        <v>7178355</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
+      <c r="N27" s="7">
+        <v>7108480</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
